--- a/in-progress/Mortezaei_2011_CompSciTech/SUBMISSION/S9/S9_lossmod.xlsx
+++ b/in-progress/Mortezaei_2011_CompSciTech/SUBMISSION/S9/S9_lossmod.xlsx
@@ -14,192 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Temperature (Celsius)</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>96.91381143622107</t>
-  </si>
-  <si>
-    <t>98.51855421686747</t>
-  </si>
-  <si>
-    <t>100.13273666092942</t>
-  </si>
-  <si>
-    <t>101.74691910499139</t>
-  </si>
-  <si>
-    <t>103.53101549053356</t>
-  </si>
-  <si>
-    <t>105.31511187607573</t>
-  </si>
-  <si>
-    <t>107.13319104991393</t>
-  </si>
-  <si>
-    <t>108.96826161790017</t>
-  </si>
-  <si>
-    <t>110.92227194492254</t>
-  </si>
-  <si>
-    <t>112.79132530120481</t>
-  </si>
-  <si>
-    <t>114.57542168674698</t>
-  </si>
-  <si>
-    <t>116.35951807228915</t>
-  </si>
-  <si>
-    <t>118.17759724612736</t>
-  </si>
-  <si>
-    <t>120.02965920826162</t>
-  </si>
-  <si>
-    <t>121.69481583476764</t>
-  </si>
-  <si>
-    <t>123.55254159495122</t>
-  </si>
-  <si>
-    <t>125.3649569707401</t>
-  </si>
-  <si>
-    <t>127.3095276343469</t>
-  </si>
-  <si>
-    <t>129.2220034423408</t>
-  </si>
-  <si>
-    <t>131.05707401032703</t>
-  </si>
-  <si>
-    <t>133.0110843373494</t>
-  </si>
-  <si>
-    <t>134.84615490533562</t>
-  </si>
-  <si>
-    <t>136.80016523235798</t>
-  </si>
-  <si>
-    <t>138.6182444061962</t>
-  </si>
-  <si>
-    <t>140.48729776247848</t>
-  </si>
-  <si>
-    <t>142.18643717728054</t>
-  </si>
-  <si>
-    <t>144.22540447504304</t>
-  </si>
-  <si>
-    <t>146.0095008605852</t>
-  </si>
-  <si>
-    <t>148.06545955249567</t>
-  </si>
-  <si>
-    <t>149.40777969018933</t>
-  </si>
-  <si>
-    <t>623862.0149740808</t>
-  </si>
-  <si>
-    <t>794833.8778487528</t>
-  </si>
-  <si>
-    <t>1075670.6302507997</t>
-  </si>
-  <si>
-    <t>1440782.259922401</t>
-  </si>
-  <si>
-    <t>1885115.6262898315</t>
-  </si>
-  <si>
-    <t>2320867.7912722426</t>
-  </si>
-  <si>
-    <t>2451398.0023497804</t>
-  </si>
-  <si>
-    <t>2372713.2810280523</t>
-  </si>
-  <si>
-    <t>2149077.4360211063</t>
-  </si>
-  <si>
-    <t>1900962.7310471272</t>
-  </si>
-  <si>
-    <t>1621796.8748630867</t>
-  </si>
-  <si>
-    <t>1333254.2871621023</t>
-  </si>
-  <si>
-    <t>1104487.80760701</t>
-  </si>
-  <si>
-    <t>925894.7193449517</t>
-  </si>
-  <si>
-    <t>779686.0599009687</t>
-  </si>
-  <si>
-    <t>665755.2919083494</t>
-  </si>
-  <si>
-    <t>575137.5941990347</t>
-  </si>
-  <si>
-    <t>497874.43331766146</t>
-  </si>
-  <si>
-    <t>438275.43314479606</t>
-  </si>
-  <si>
-    <t>398630.9368376881</t>
-  </si>
-  <si>
-    <t>368949.74018409685</t>
-  </si>
-  <si>
-    <t>344564.995195991</t>
-  </si>
-  <si>
-    <t>317606.3520596238</t>
-  </si>
-  <si>
-    <t>287378.07317131304</t>
-  </si>
-  <si>
-    <t>279497.82777397113</t>
-  </si>
-  <si>
-    <t>268068.55233446584</t>
-  </si>
-  <si>
-    <t>256973.6829668525</t>
-  </si>
-  <si>
-    <t>252769.45680667032</t>
-  </si>
-  <si>
-    <t>243030.52545260155</t>
-  </si>
-  <si>
-    <t>232052.62609698146</t>
+    <t>Loss modulus (Pa)</t>
   </si>
 </sst>
 </file>
@@ -572,243 +392,243 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>32</v>
+      <c r="A2">
+        <v>96.91381143622107</v>
+      </c>
+      <c r="B2">
+        <v>623862.0149740808</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>33</v>
+      <c r="A3">
+        <v>98.51855421686747</v>
+      </c>
+      <c r="B3">
+        <v>794833.8778487528</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>34</v>
+      <c r="A4">
+        <v>100.1327366609294</v>
+      </c>
+      <c r="B4">
+        <v>1075670.6302508</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>35</v>
+      <c r="A5">
+        <v>101.7469191049914</v>
+      </c>
+      <c r="B5">
+        <v>1440782.259922401</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>36</v>
+      <c r="A6">
+        <v>103.5310154905336</v>
+      </c>
+      <c r="B6">
+        <v>1885115.626289831</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>37</v>
+      <c r="A7">
+        <v>105.3151118760757</v>
+      </c>
+      <c r="B7">
+        <v>2320867.791272243</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>38</v>
+      <c r="A8">
+        <v>107.1331910499139</v>
+      </c>
+      <c r="B8">
+        <v>2451398.00234978</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>39</v>
+      <c r="A9">
+        <v>108.9682616179002</v>
+      </c>
+      <c r="B9">
+        <v>2372713.281028052</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>40</v>
+      <c r="A10">
+        <v>110.9222719449225</v>
+      </c>
+      <c r="B10">
+        <v>2149077.436021106</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>41</v>
+      <c r="A11">
+        <v>112.7913253012048</v>
+      </c>
+      <c r="B11">
+        <v>1900962.731047127</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>42</v>
+      <c r="A12">
+        <v>114.575421686747</v>
+      </c>
+      <c r="B12">
+        <v>1621796.874863087</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>43</v>
+      <c r="A13">
+        <v>116.3595180722891</v>
+      </c>
+      <c r="B13">
+        <v>1333254.287162102</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>44</v>
+      <c r="A14">
+        <v>118.1775972461274</v>
+      </c>
+      <c r="B14">
+        <v>1104487.80760701</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>45</v>
+      <c r="A15">
+        <v>120.0296592082616</v>
+      </c>
+      <c r="B15">
+        <v>925894.7193449517</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>46</v>
+      <c r="A16">
+        <v>121.6948158347676</v>
+      </c>
+      <c r="B16">
+        <v>779686.0599009687</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>47</v>
+      <c r="A17">
+        <v>123.5525415949512</v>
+      </c>
+      <c r="B17">
+        <v>665755.2919083494</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>48</v>
+      <c r="A18">
+        <v>125.3649569707401</v>
+      </c>
+      <c r="B18">
+        <v>575137.5941990347</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>49</v>
+      <c r="A19">
+        <v>127.3095276343469</v>
+      </c>
+      <c r="B19">
+        <v>497874.4333176615</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>50</v>
+      <c r="A20">
+        <v>129.2220034423408</v>
+      </c>
+      <c r="B20">
+        <v>438275.4331447961</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>51</v>
+      <c r="A21">
+        <v>131.057074010327</v>
+      </c>
+      <c r="B21">
+        <v>398630.9368376881</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>52</v>
+      <c r="A22">
+        <v>133.0110843373494</v>
+      </c>
+      <c r="B22">
+        <v>368949.7401840969</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>53</v>
+      <c r="A23">
+        <v>134.8461549053356</v>
+      </c>
+      <c r="B23">
+        <v>344564.995195991</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>54</v>
+      <c r="A24">
+        <v>136.800165232358</v>
+      </c>
+      <c r="B24">
+        <v>317606.3520596238</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>55</v>
+      <c r="A25">
+        <v>138.6182444061962</v>
+      </c>
+      <c r="B25">
+        <v>287378.073171313</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" t="s">
-        <v>56</v>
+      <c r="A26">
+        <v>140.4872977624785</v>
+      </c>
+      <c r="B26">
+        <v>279497.8277739711</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" t="s">
-        <v>57</v>
+      <c r="A27">
+        <v>142.1864371772805</v>
+      </c>
+      <c r="B27">
+        <v>268068.5523344658</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" t="s">
-        <v>58</v>
+      <c r="A28">
+        <v>144.225404475043</v>
+      </c>
+      <c r="B28">
+        <v>256973.6829668525</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" t="s">
-        <v>59</v>
+      <c r="A29">
+        <v>146.0095008605852</v>
+      </c>
+      <c r="B29">
+        <v>252769.4568066703</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" t="s">
-        <v>60</v>
+      <c r="A30">
+        <v>148.0654595524957</v>
+      </c>
+      <c r="B30">
+        <v>243030.5254526015</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" t="s">
-        <v>61</v>
+      <c r="A31">
+        <v>149.4077796901893</v>
+      </c>
+      <c r="B31">
+        <v>232052.6260969815</v>
       </c>
     </row>
   </sheetData>
